--- a/static/data/작업공수/작업자입력.xlsx
+++ b/static/data/작업공수/작업자입력.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,12 @@
         </is>
       </c>
       <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -568,6 +574,16 @@
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>실</t>
         </is>
@@ -620,6 +636,8 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -662,6 +680,8 @@
         <v>1</v>
       </c>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -700,6 +720,8 @@
         <v>1</v>
       </c>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -742,6 +764,8 @@
         <v>1</v>
       </c>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -784,6 +808,8 @@
         <v>1</v>
       </c>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,6 +852,8 @@
         <v>1</v>
       </c>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -868,6 +896,8 @@
         <v>1</v>
       </c>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -910,6 +940,8 @@
         <v>1</v>
       </c>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -946,6 +978,8 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -982,6 +1016,8 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1018,6 +1054,8 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1054,6 +1092,8 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1090,6 +1130,8 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1126,6 +1168,8 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1162,6 +1206,8 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1198,6 +1244,8 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1230,6 +1278,8 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1266,6 +1316,8 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1302,6 +1354,8 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1338,6 +1392,8 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1374,6 +1430,8 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1410,6 +1468,8 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1442,6 +1502,8 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1474,6 +1536,8 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1510,6 +1574,8 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,6 +1612,8 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1582,6 +1650,8 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1618,6 +1688,8 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1654,6 +1726,8 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1690,6 +1764,8 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1726,6 +1802,8 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1762,6 +1840,8 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1798,6 +1878,8 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1834,6 +1916,8 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1870,6 +1954,8 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,6 +1992,8 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1942,6 +2030,8 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1978,6 +2068,8 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2014,6 +2106,8 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2050,6 +2144,8 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2086,6 +2182,8 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2122,6 +2220,8 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2158,6 +2258,8 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2194,6 +2296,8 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2230,6 +2334,8 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2266,6 +2372,8 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2302,6 +2410,8 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,6 +2448,8 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2374,6 +2486,8 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2410,6 +2524,8 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2446,6 +2562,8 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2482,6 +2600,8 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2518,6 +2638,8 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,6 +2676,8 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2590,6 +2714,8 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2626,6 +2752,8 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2662,6 +2790,8 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2698,6 +2828,8 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2734,6 +2866,8 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2770,6 +2904,8 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2806,6 +2942,8 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2842,6 +2980,8 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2878,6 +3018,8 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2914,6 +3056,8 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2946,9 +3090,12 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>

--- a/static/data/작업공수/작업자입력.xlsx
+++ b/static/data/작업공수/작업자입력.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:BT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,168 @@
         </is>
       </c>
       <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="n"/>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="n"/>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="n"/>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="n"/>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="n"/>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="n"/>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="n"/>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="n"/>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="n"/>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -584,6 +746,276 @@
         </is>
       </c>
       <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BO2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BQ2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BR2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BS2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BT2" s="1" t="inlineStr">
         <is>
           <t>실</t>
         </is>
@@ -638,6 +1070,60 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -682,6 +1168,60 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -722,6 +1262,60 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -766,6 +1360,60 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -810,6 +1458,60 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -854,6 +1556,60 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -898,6 +1654,60 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -942,6 +1752,60 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -980,6 +1844,60 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1018,6 +1936,60 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1056,6 +2028,60 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1094,6 +2120,60 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1132,6 +2212,60 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1170,6 +2304,60 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1208,6 +2396,60 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1246,6 +2488,60 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1280,6 +2576,60 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1318,6 +2668,60 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1356,6 +2760,60 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1394,6 +2852,60 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1432,6 +2944,60 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1470,6 +3036,60 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1504,6 +3124,60 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1538,6 +3212,60 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1576,6 +3304,60 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1614,6 +3396,60 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1652,6 +3488,60 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1690,6 +3580,60 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1728,6 +3672,60 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1766,6 +3764,60 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" t="inlineStr"/>
+      <c r="BN32" t="inlineStr"/>
+      <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1804,6 +3856,60 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1842,6 +3948,60 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1880,6 +4040,60 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1918,6 +4132,60 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1956,6 +4224,60 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1994,6 +4316,60 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2032,6 +4408,60 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2070,6 +4500,60 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2108,6 +4592,60 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2146,6 +4684,60 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
+      <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,6 +4776,60 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2222,6 +4868,60 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
+      <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="inlineStr"/>
+      <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
+      <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,6 +4960,60 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="inlineStr"/>
+      <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,6 +5052,60 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2336,6 +5144,60 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr"/>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
+      <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2374,6 +5236,60 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
+      <c r="AZ48" t="inlineStr"/>
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
+      <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
+      <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2412,6 +5328,60 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
+      <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
+      <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2450,6 +5420,60 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
+      <c r="BH50" t="inlineStr"/>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
+      <c r="BM50" t="inlineStr"/>
+      <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2488,6 +5512,60 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="inlineStr"/>
+      <c r="BL51" t="inlineStr"/>
+      <c r="BM51" t="inlineStr"/>
+      <c r="BN51" t="inlineStr"/>
+      <c r="BO51" t="inlineStr"/>
+      <c r="BP51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
+      <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2526,6 +5604,60 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
+      <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="inlineStr"/>
+      <c r="BL52" t="inlineStr"/>
+      <c r="BM52" t="inlineStr"/>
+      <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="inlineStr"/>
+      <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
+      <c r="BS52" t="inlineStr"/>
+      <c r="BT52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2564,6 +5696,60 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="inlineStr"/>
+      <c r="BG53" t="inlineStr"/>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="inlineStr"/>
+      <c r="BM53" t="inlineStr"/>
+      <c r="BN53" t="inlineStr"/>
+      <c r="BO53" t="inlineStr"/>
+      <c r="BP53" t="inlineStr"/>
+      <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
+      <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2602,6 +5788,60 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2640,6 +5880,60 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="inlineStr"/>
+      <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="inlineStr"/>
+      <c r="BF55" t="inlineStr"/>
+      <c r="BG55" t="inlineStr"/>
+      <c r="BH55" t="inlineStr"/>
+      <c r="BI55" t="inlineStr"/>
+      <c r="BJ55" t="inlineStr"/>
+      <c r="BK55" t="inlineStr"/>
+      <c r="BL55" t="inlineStr"/>
+      <c r="BM55" t="inlineStr"/>
+      <c r="BN55" t="inlineStr"/>
+      <c r="BO55" t="inlineStr"/>
+      <c r="BP55" t="inlineStr"/>
+      <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
+      <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2678,6 +5972,60 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr"/>
+      <c r="BF56" t="inlineStr"/>
+      <c r="BG56" t="inlineStr"/>
+      <c r="BH56" t="inlineStr"/>
+      <c r="BI56" t="inlineStr"/>
+      <c r="BJ56" t="inlineStr"/>
+      <c r="BK56" t="inlineStr"/>
+      <c r="BL56" t="inlineStr"/>
+      <c r="BM56" t="inlineStr"/>
+      <c r="BN56" t="inlineStr"/>
+      <c r="BO56" t="inlineStr"/>
+      <c r="BP56" t="inlineStr"/>
+      <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
+      <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2716,6 +6064,60 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="inlineStr"/>
+      <c r="BM57" t="inlineStr"/>
+      <c r="BN57" t="inlineStr"/>
+      <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
+      <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2754,6 +6156,60 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="inlineStr"/>
+      <c r="BL58" t="inlineStr"/>
+      <c r="BM58" t="inlineStr"/>
+      <c r="BN58" t="inlineStr"/>
+      <c r="BO58" t="inlineStr"/>
+      <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
+      <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2792,6 +6248,60 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="inlineStr"/>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr"/>
+      <c r="BC59" t="inlineStr"/>
+      <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr"/>
+      <c r="BF59" t="inlineStr"/>
+      <c r="BG59" t="inlineStr"/>
+      <c r="BH59" t="inlineStr"/>
+      <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="inlineStr"/>
+      <c r="BK59" t="inlineStr"/>
+      <c r="BL59" t="inlineStr"/>
+      <c r="BM59" t="inlineStr"/>
+      <c r="BN59" t="inlineStr"/>
+      <c r="BO59" t="inlineStr"/>
+      <c r="BP59" t="inlineStr"/>
+      <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
+      <c r="BS59" t="inlineStr"/>
+      <c r="BT59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2830,6 +6340,60 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
+      <c r="BF60" t="inlineStr"/>
+      <c r="BG60" t="inlineStr"/>
+      <c r="BH60" t="inlineStr"/>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" t="inlineStr"/>
+      <c r="BL60" t="inlineStr"/>
+      <c r="BM60" t="inlineStr"/>
+      <c r="BN60" t="inlineStr"/>
+      <c r="BO60" t="inlineStr"/>
+      <c r="BP60" t="inlineStr"/>
+      <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
+      <c r="BS60" t="inlineStr"/>
+      <c r="BT60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2868,6 +6432,60 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="inlineStr"/>
+      <c r="BL61" t="inlineStr"/>
+      <c r="BM61" t="inlineStr"/>
+      <c r="BN61" t="inlineStr"/>
+      <c r="BO61" t="inlineStr"/>
+      <c r="BP61" t="inlineStr"/>
+      <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
+      <c r="BS61" t="inlineStr"/>
+      <c r="BT61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2906,6 +6524,60 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="inlineStr"/>
+      <c r="BE62" t="inlineStr"/>
+      <c r="BF62" t="inlineStr"/>
+      <c r="BG62" t="inlineStr"/>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" t="inlineStr"/>
+      <c r="BL62" t="inlineStr"/>
+      <c r="BM62" t="inlineStr"/>
+      <c r="BN62" t="inlineStr"/>
+      <c r="BO62" t="inlineStr"/>
+      <c r="BP62" t="inlineStr"/>
+      <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
+      <c r="BS62" t="inlineStr"/>
+      <c r="BT62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2944,6 +6616,60 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="inlineStr"/>
+      <c r="BB63" t="inlineStr"/>
+      <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="inlineStr"/>
+      <c r="BF63" t="inlineStr"/>
+      <c r="BG63" t="inlineStr"/>
+      <c r="BH63" t="inlineStr"/>
+      <c r="BI63" t="inlineStr"/>
+      <c r="BJ63" t="inlineStr"/>
+      <c r="BK63" t="inlineStr"/>
+      <c r="BL63" t="inlineStr"/>
+      <c r="BM63" t="inlineStr"/>
+      <c r="BN63" t="inlineStr"/>
+      <c r="BO63" t="inlineStr"/>
+      <c r="BP63" t="inlineStr"/>
+      <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
+      <c r="BS63" t="inlineStr"/>
+      <c r="BT63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,6 +6708,60 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="inlineStr"/>
+      <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="inlineStr"/>
+      <c r="BE64" t="inlineStr"/>
+      <c r="BF64" t="inlineStr"/>
+      <c r="BG64" t="inlineStr"/>
+      <c r="BH64" t="inlineStr"/>
+      <c r="BI64" t="inlineStr"/>
+      <c r="BJ64" t="inlineStr"/>
+      <c r="BK64" t="inlineStr"/>
+      <c r="BL64" t="inlineStr"/>
+      <c r="BM64" t="inlineStr"/>
+      <c r="BN64" t="inlineStr"/>
+      <c r="BO64" t="inlineStr"/>
+      <c r="BP64" t="inlineStr"/>
+      <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
+      <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3020,6 +6800,60 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr"/>
+      <c r="BG65" t="inlineStr"/>
+      <c r="BH65" t="inlineStr"/>
+      <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" t="inlineStr"/>
+      <c r="BL65" t="inlineStr"/>
+      <c r="BM65" t="inlineStr"/>
+      <c r="BN65" t="inlineStr"/>
+      <c r="BO65" t="inlineStr"/>
+      <c r="BP65" t="inlineStr"/>
+      <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
+      <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3058,6 +6892,60 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr"/>
+      <c r="BF66" t="inlineStr"/>
+      <c r="BG66" t="inlineStr"/>
+      <c r="BH66" t="inlineStr"/>
+      <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="inlineStr"/>
+      <c r="BL66" t="inlineStr"/>
+      <c r="BM66" t="inlineStr"/>
+      <c r="BN66" t="inlineStr"/>
+      <c r="BO66" t="inlineStr"/>
+      <c r="BP66" t="inlineStr"/>
+      <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
+      <c r="BS66" t="inlineStr"/>
+      <c r="BT66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3092,15 +6980,96 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="inlineStr"/>
+      <c r="BH67" t="inlineStr"/>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="inlineStr"/>
+      <c r="BL67" t="inlineStr"/>
+      <c r="BM67" t="inlineStr"/>
+      <c r="BN67" t="inlineStr"/>
+      <c r="BO67" t="inlineStr"/>
+      <c r="BP67" t="inlineStr"/>
+      <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
+      <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="33">
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BO1:BP1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업자입력.xlsx
+++ b/static/data/작업공수/작업자입력.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT67"/>
+  <dimension ref="A1:CB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,30 @@
         </is>
       </c>
       <c r="BT1" s="1" t="n"/>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="n"/>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="n"/>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="n"/>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -1016,6 +1040,46 @@
         </is>
       </c>
       <c r="BT2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BU2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BW2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BX2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="BY2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="BZ2" s="1" t="inlineStr">
+        <is>
+          <t>실</t>
+        </is>
+      </c>
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
         <is>
           <t>실</t>
         </is>
@@ -1124,6 +1188,14 @@
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1222,6 +1294,14 @@
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1316,6 +1396,14 @@
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1414,6 +1502,14 @@
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1512,6 +1608,14 @@
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1610,6 +1714,14 @@
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1708,6 +1820,14 @@
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1806,6 +1926,14 @@
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1898,6 +2026,14 @@
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1990,6 +2126,14 @@
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2082,6 +2226,14 @@
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2174,6 +2326,14 @@
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2266,6 +2426,14 @@
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2358,6 +2526,14 @@
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2450,6 +2626,14 @@
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2542,6 +2726,14 @@
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2630,6 +2822,14 @@
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2722,6 +2922,14 @@
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2814,6 +3022,14 @@
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2906,6 +3122,14 @@
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2998,6 +3222,14 @@
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3090,6 +3322,14 @@
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3178,6 +3418,14 @@
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3266,6 +3514,14 @@
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3358,6 +3614,14 @@
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3450,6 +3714,14 @@
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3542,6 +3814,14 @@
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3634,6 +3914,14 @@
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
       <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3726,6 +4014,14 @@
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3818,6 +4114,14 @@
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3910,6 +4214,14 @@
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
       <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4002,6 +4314,14 @@
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
       <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4094,6 +4414,14 @@
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
       <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4186,6 +4514,14 @@
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="inlineStr"/>
       <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4278,6 +4614,14 @@
       <c r="BR37" t="inlineStr"/>
       <c r="BS37" t="inlineStr"/>
       <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4370,6 +4714,14 @@
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="inlineStr"/>
       <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4462,6 +4814,14 @@
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
       <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4554,6 +4914,14 @@
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="inlineStr"/>
       <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4646,6 +5014,14 @@
       <c r="BR41" t="inlineStr"/>
       <c r="BS41" t="inlineStr"/>
       <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="inlineStr"/>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4738,6 +5114,14 @@
       <c r="BR42" t="inlineStr"/>
       <c r="BS42" t="inlineStr"/>
       <c r="BT42" t="inlineStr"/>
+      <c r="BU42" t="inlineStr"/>
+      <c r="BV42" t="inlineStr"/>
+      <c r="BW42" t="inlineStr"/>
+      <c r="BX42" t="inlineStr"/>
+      <c r="BY42" t="inlineStr"/>
+      <c r="BZ42" t="inlineStr"/>
+      <c r="CA42" t="inlineStr"/>
+      <c r="CB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4830,6 +5214,14 @@
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="inlineStr"/>
       <c r="BT43" t="inlineStr"/>
+      <c r="BU43" t="inlineStr"/>
+      <c r="BV43" t="inlineStr"/>
+      <c r="BW43" t="inlineStr"/>
+      <c r="BX43" t="inlineStr"/>
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4922,6 +5314,14 @@
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
       <c r="BT44" t="inlineStr"/>
+      <c r="BU44" t="inlineStr"/>
+      <c r="BV44" t="inlineStr"/>
+      <c r="BW44" t="inlineStr"/>
+      <c r="BX44" t="inlineStr"/>
+      <c r="BY44" t="inlineStr"/>
+      <c r="BZ44" t="inlineStr"/>
+      <c r="CA44" t="inlineStr"/>
+      <c r="CB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5014,6 +5414,14 @@
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
       <c r="BT45" t="inlineStr"/>
+      <c r="BU45" t="inlineStr"/>
+      <c r="BV45" t="inlineStr"/>
+      <c r="BW45" t="inlineStr"/>
+      <c r="BX45" t="inlineStr"/>
+      <c r="BY45" t="inlineStr"/>
+      <c r="BZ45" t="inlineStr"/>
+      <c r="CA45" t="inlineStr"/>
+      <c r="CB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5106,6 +5514,14 @@
       <c r="BR46" t="inlineStr"/>
       <c r="BS46" t="inlineStr"/>
       <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="inlineStr"/>
+      <c r="BV46" t="inlineStr"/>
+      <c r="BW46" t="inlineStr"/>
+      <c r="BX46" t="inlineStr"/>
+      <c r="BY46" t="inlineStr"/>
+      <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
+      <c r="CB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5198,6 +5614,14 @@
       <c r="BR47" t="inlineStr"/>
       <c r="BS47" t="inlineStr"/>
       <c r="BT47" t="inlineStr"/>
+      <c r="BU47" t="inlineStr"/>
+      <c r="BV47" t="inlineStr"/>
+      <c r="BW47" t="inlineStr"/>
+      <c r="BX47" t="inlineStr"/>
+      <c r="BY47" t="inlineStr"/>
+      <c r="BZ47" t="inlineStr"/>
+      <c r="CA47" t="inlineStr"/>
+      <c r="CB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5290,6 +5714,14 @@
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
       <c r="BT48" t="inlineStr"/>
+      <c r="BU48" t="inlineStr"/>
+      <c r="BV48" t="inlineStr"/>
+      <c r="BW48" t="inlineStr"/>
+      <c r="BX48" t="inlineStr"/>
+      <c r="BY48" t="inlineStr"/>
+      <c r="BZ48" t="inlineStr"/>
+      <c r="CA48" t="inlineStr"/>
+      <c r="CB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5382,6 +5814,14 @@
       <c r="BR49" t="inlineStr"/>
       <c r="BS49" t="inlineStr"/>
       <c r="BT49" t="inlineStr"/>
+      <c r="BU49" t="inlineStr"/>
+      <c r="BV49" t="inlineStr"/>
+      <c r="BW49" t="inlineStr"/>
+      <c r="BX49" t="inlineStr"/>
+      <c r="BY49" t="inlineStr"/>
+      <c r="BZ49" t="inlineStr"/>
+      <c r="CA49" t="inlineStr"/>
+      <c r="CB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5474,6 +5914,14 @@
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
       <c r="BT50" t="inlineStr"/>
+      <c r="BU50" t="inlineStr"/>
+      <c r="BV50" t="inlineStr"/>
+      <c r="BW50" t="inlineStr"/>
+      <c r="BX50" t="inlineStr"/>
+      <c r="BY50" t="inlineStr"/>
+      <c r="BZ50" t="inlineStr"/>
+      <c r="CA50" t="inlineStr"/>
+      <c r="CB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5566,6 +6014,14 @@
       <c r="BR51" t="inlineStr"/>
       <c r="BS51" t="inlineStr"/>
       <c r="BT51" t="inlineStr"/>
+      <c r="BU51" t="inlineStr"/>
+      <c r="BV51" t="inlineStr"/>
+      <c r="BW51" t="inlineStr"/>
+      <c r="BX51" t="inlineStr"/>
+      <c r="BY51" t="inlineStr"/>
+      <c r="BZ51" t="inlineStr"/>
+      <c r="CA51" t="inlineStr"/>
+      <c r="CB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5658,6 +6114,14 @@
       <c r="BR52" t="inlineStr"/>
       <c r="BS52" t="inlineStr"/>
       <c r="BT52" t="inlineStr"/>
+      <c r="BU52" t="inlineStr"/>
+      <c r="BV52" t="inlineStr"/>
+      <c r="BW52" t="inlineStr"/>
+      <c r="BX52" t="inlineStr"/>
+      <c r="BY52" t="inlineStr"/>
+      <c r="BZ52" t="inlineStr"/>
+      <c r="CA52" t="inlineStr"/>
+      <c r="CB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5750,6 +6214,14 @@
       <c r="BR53" t="inlineStr"/>
       <c r="BS53" t="inlineStr"/>
       <c r="BT53" t="inlineStr"/>
+      <c r="BU53" t="inlineStr"/>
+      <c r="BV53" t="inlineStr"/>
+      <c r="BW53" t="inlineStr"/>
+      <c r="BX53" t="inlineStr"/>
+      <c r="BY53" t="inlineStr"/>
+      <c r="BZ53" t="inlineStr"/>
+      <c r="CA53" t="inlineStr"/>
+      <c r="CB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5842,6 +6314,14 @@
       <c r="BR54" t="inlineStr"/>
       <c r="BS54" t="inlineStr"/>
       <c r="BT54" t="inlineStr"/>
+      <c r="BU54" t="inlineStr"/>
+      <c r="BV54" t="inlineStr"/>
+      <c r="BW54" t="inlineStr"/>
+      <c r="BX54" t="inlineStr"/>
+      <c r="BY54" t="inlineStr"/>
+      <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5934,6 +6414,14 @@
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
       <c r="BT55" t="inlineStr"/>
+      <c r="BU55" t="inlineStr"/>
+      <c r="BV55" t="inlineStr"/>
+      <c r="BW55" t="inlineStr"/>
+      <c r="BX55" t="inlineStr"/>
+      <c r="BY55" t="inlineStr"/>
+      <c r="BZ55" t="inlineStr"/>
+      <c r="CA55" t="inlineStr"/>
+      <c r="CB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6026,6 +6514,14 @@
       <c r="BR56" t="inlineStr"/>
       <c r="BS56" t="inlineStr"/>
       <c r="BT56" t="inlineStr"/>
+      <c r="BU56" t="inlineStr"/>
+      <c r="BV56" t="inlineStr"/>
+      <c r="BW56" t="inlineStr"/>
+      <c r="BX56" t="inlineStr"/>
+      <c r="BY56" t="inlineStr"/>
+      <c r="BZ56" t="inlineStr"/>
+      <c r="CA56" t="inlineStr"/>
+      <c r="CB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6118,6 +6614,14 @@
       <c r="BR57" t="inlineStr"/>
       <c r="BS57" t="inlineStr"/>
       <c r="BT57" t="inlineStr"/>
+      <c r="BU57" t="inlineStr"/>
+      <c r="BV57" t="inlineStr"/>
+      <c r="BW57" t="inlineStr"/>
+      <c r="BX57" t="inlineStr"/>
+      <c r="BY57" t="inlineStr"/>
+      <c r="BZ57" t="inlineStr"/>
+      <c r="CA57" t="inlineStr"/>
+      <c r="CB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6210,6 +6714,14 @@
       <c r="BR58" t="inlineStr"/>
       <c r="BS58" t="inlineStr"/>
       <c r="BT58" t="inlineStr"/>
+      <c r="BU58" t="inlineStr"/>
+      <c r="BV58" t="inlineStr"/>
+      <c r="BW58" t="inlineStr"/>
+      <c r="BX58" t="inlineStr"/>
+      <c r="BY58" t="inlineStr"/>
+      <c r="BZ58" t="inlineStr"/>
+      <c r="CA58" t="inlineStr"/>
+      <c r="CB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6302,6 +6814,14 @@
       <c r="BR59" t="inlineStr"/>
       <c r="BS59" t="inlineStr"/>
       <c r="BT59" t="inlineStr"/>
+      <c r="BU59" t="inlineStr"/>
+      <c r="BV59" t="inlineStr"/>
+      <c r="BW59" t="inlineStr"/>
+      <c r="BX59" t="inlineStr"/>
+      <c r="BY59" t="inlineStr"/>
+      <c r="BZ59" t="inlineStr"/>
+      <c r="CA59" t="inlineStr"/>
+      <c r="CB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6394,6 +6914,14 @@
       <c r="BR60" t="inlineStr"/>
       <c r="BS60" t="inlineStr"/>
       <c r="BT60" t="inlineStr"/>
+      <c r="BU60" t="inlineStr"/>
+      <c r="BV60" t="inlineStr"/>
+      <c r="BW60" t="inlineStr"/>
+      <c r="BX60" t="inlineStr"/>
+      <c r="BY60" t="inlineStr"/>
+      <c r="BZ60" t="inlineStr"/>
+      <c r="CA60" t="inlineStr"/>
+      <c r="CB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6486,6 +7014,14 @@
       <c r="BR61" t="inlineStr"/>
       <c r="BS61" t="inlineStr"/>
       <c r="BT61" t="inlineStr"/>
+      <c r="BU61" t="inlineStr"/>
+      <c r="BV61" t="inlineStr"/>
+      <c r="BW61" t="inlineStr"/>
+      <c r="BX61" t="inlineStr"/>
+      <c r="BY61" t="inlineStr"/>
+      <c r="BZ61" t="inlineStr"/>
+      <c r="CA61" t="inlineStr"/>
+      <c r="CB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6578,6 +7114,14 @@
       <c r="BR62" t="inlineStr"/>
       <c r="BS62" t="inlineStr"/>
       <c r="BT62" t="inlineStr"/>
+      <c r="BU62" t="inlineStr"/>
+      <c r="BV62" t="inlineStr"/>
+      <c r="BW62" t="inlineStr"/>
+      <c r="BX62" t="inlineStr"/>
+      <c r="BY62" t="inlineStr"/>
+      <c r="BZ62" t="inlineStr"/>
+      <c r="CA62" t="inlineStr"/>
+      <c r="CB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6670,6 +7214,14 @@
       <c r="BR63" t="inlineStr"/>
       <c r="BS63" t="inlineStr"/>
       <c r="BT63" t="inlineStr"/>
+      <c r="BU63" t="inlineStr"/>
+      <c r="BV63" t="inlineStr"/>
+      <c r="BW63" t="inlineStr"/>
+      <c r="BX63" t="inlineStr"/>
+      <c r="BY63" t="inlineStr"/>
+      <c r="BZ63" t="inlineStr"/>
+      <c r="CA63" t="inlineStr"/>
+      <c r="CB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6762,6 +7314,14 @@
       <c r="BR64" t="inlineStr"/>
       <c r="BS64" t="inlineStr"/>
       <c r="BT64" t="inlineStr"/>
+      <c r="BU64" t="inlineStr"/>
+      <c r="BV64" t="inlineStr"/>
+      <c r="BW64" t="inlineStr"/>
+      <c r="BX64" t="inlineStr"/>
+      <c r="BY64" t="inlineStr"/>
+      <c r="BZ64" t="inlineStr"/>
+      <c r="CA64" t="inlineStr"/>
+      <c r="CB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6854,6 +7414,14 @@
       <c r="BR65" t="inlineStr"/>
       <c r="BS65" t="inlineStr"/>
       <c r="BT65" t="inlineStr"/>
+      <c r="BU65" t="inlineStr"/>
+      <c r="BV65" t="inlineStr"/>
+      <c r="BW65" t="inlineStr"/>
+      <c r="BX65" t="inlineStr"/>
+      <c r="BY65" t="inlineStr"/>
+      <c r="BZ65" t="inlineStr"/>
+      <c r="CA65" t="inlineStr"/>
+      <c r="CB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6946,6 +7514,14 @@
       <c r="BR66" t="inlineStr"/>
       <c r="BS66" t="inlineStr"/>
       <c r="BT66" t="inlineStr"/>
+      <c r="BU66" t="inlineStr"/>
+      <c r="BV66" t="inlineStr"/>
+      <c r="BW66" t="inlineStr"/>
+      <c r="BX66" t="inlineStr"/>
+      <c r="BY66" t="inlineStr"/>
+      <c r="BZ66" t="inlineStr"/>
+      <c r="CA66" t="inlineStr"/>
+      <c r="CB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7034,13 +7610,23 @@
       <c r="BR67" t="inlineStr"/>
       <c r="BS67" t="inlineStr"/>
       <c r="BT67" t="inlineStr"/>
+      <c r="BU67" t="inlineStr"/>
+      <c r="BV67" t="inlineStr"/>
+      <c r="BW67" t="inlineStr"/>
+      <c r="BX67" t="inlineStr"/>
+      <c r="BY67" t="inlineStr"/>
+      <c r="BZ67" t="inlineStr"/>
+      <c r="CA67" t="inlineStr"/>
+      <c r="CB67" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="BY1:BZ1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="CA1:CB1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
@@ -7052,6 +7638,7 @@
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="BQ1:BR1"/>
     <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BU1:BV1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AK1:AL1"/>
@@ -7070,6 +7657,7 @@
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BW1:BX1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
